--- a/secure/26e-Sanja.xlsx
+++ b/secure/26e-Sanja.xlsx
@@ -28,13 +28,13 @@
     <t>c</t>
   </si>
   <si>
-    <t>26e-Sanja-1031920</t>
+    <t>26e-Sanja-116518</t>
   </si>
   <si>
-    <t>26e-Sanja-599854</t>
+    <t>26e-Sanja-518384</t>
   </si>
   <si>
-    <t>26e-Sanja-673137</t>
+    <t>26e-Sanja-469876</t>
   </si>
 </sst>
 </file>
@@ -66,7 +66,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="Ff933bbb"/>
+        <fgColor rgb="F699a3fe"/>
       </patternFill>
     </fill>
   </fills>
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:WL503"/>
+  <dimension ref="A1:QV503"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -649,11 +649,14 @@
       </c>
       <c r="M33" s="4"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:464" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>-0.872</v>
       </c>
       <c r="M34" s="4"/>
+      <c r="QV34" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
@@ -925,14 +928,11 @@
       </c>
       <c r="M79" s="4"/>
     </row>
-    <row r="80" spans="1:582" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>-0.688</v>
       </c>
       <c r="M80" s="4"/>
-      <c r="VJ80" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
@@ -1618,11 +1618,14 @@
       </c>
       <c r="M194" s="4"/>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:256" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>-0.228</v>
       </c>
       <c r="M195" s="4"/>
+      <c r="IV195" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
@@ -2008,14 +2011,11 @@
       </c>
       <c r="M259" s="4"/>
     </row>
-    <row r="260" spans="1:366" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
         <v>0.032</v>
       </c>
       <c r="M260" s="4"/>
-      <c r="NB260" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
@@ -2407,11 +2407,14 @@
       </c>
       <c r="M325" s="4"/>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:215" x14ac:dyDescent="0.25">
       <c r="A326" s="3">
         <v>0.296</v>
       </c>
       <c r="M326" s="4"/>
+      <c r="HG326" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A327" s="3">
@@ -3445,14 +3448,11 @@
       </c>
       <c r="M498" s="4"/>
     </row>
-    <row r="499" spans="1:610" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A499" s="3">
         <v>0.988</v>
       </c>
       <c r="M499" s="4"/>
-      <c r="WL499" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="500" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A500" s="3">
